--- a/biology/Botanique/Bencomia/Bencomia.xlsx
+++ b/biology/Botanique/Bencomia/Bencomia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bencomia est un genre de plantes à fleurs de la famille des Rosaceae. Il comprend quatre espèces rares indigènes aux îles Canaries, qui poussent sous forme d'arbustes ligneux et ramifiés avec des feuilles persistantes brillantes et des inflorescences centrales pendantes avec de petites fleurs suivies de fruits globuleux denses. Les hauteurs à maturité varient de 1 à 4 mètres.
 </t>
@@ -511,7 +523,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bencomia brachystachya
 Bencomia caudata
